--- a/ute/ui_config_patch/AB281DC/defaultLanguage/input.xlsx
+++ b/ute/ui_config_patch/AB281DC/defaultLanguage/input.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5186" uniqueCount="4120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5326" uniqueCount="4172">
   <si>
     <t>界面编号</t>
   </si>
@@ -18006,6 +18006,42 @@
     <t>Compass</t>
   </si>
   <si>
+    <t>البوصلة</t>
+  </si>
+  <si>
+    <t>Компас</t>
+  </si>
+  <si>
+    <t>Pusula</t>
+  </si>
+  <si>
+    <t>Kompas</t>
+  </si>
+  <si>
+    <t>コンパス</t>
+  </si>
+  <si>
+    <t>Kompass</t>
+  </si>
+  <si>
+    <t>Boussole</t>
+  </si>
+  <si>
+    <t>bussola</t>
+  </si>
+  <si>
+    <t>Bússola</t>
+  </si>
+  <si>
+    <t>เข็มทิศ</t>
+  </si>
+  <si>
+    <t>La bàn</t>
+  </si>
+  <si>
+    <t>指南針</t>
+  </si>
+  <si>
     <t>请把手表按照图示方向移动，进行校准</t>
   </si>
   <si>
@@ -18015,6 +18051,48 @@
     <t>Please calibrate the watch by moving it in the direction shown in the illustration</t>
   </si>
   <si>
+    <t>يرجى معايرة الساعة عن طريق تحريكها في الاتجاه الموضح في الرسم التوضيحي</t>
+  </si>
+  <si>
+    <t>Пожалуйста, калибрируйте часы, передвигая их в направлении, показанном на иллюстрации</t>
+  </si>
+  <si>
+    <t>Lütfen saati resimde gösterilen yönde hareket ederek kalibre edin</t>
+  </si>
+  <si>
+    <t>Sila kalibrasi jam tangan dengan menggerakkannya ke arah yang ditunjukkan dalam ilustrasi</t>
+  </si>
+  <si>
+    <t>イラストに示されている方向に移動して時計を校正してください</t>
+  </si>
+  <si>
+    <t>Bitte kalibrieren Sie die Uhr, indem Sie sie in die in der Abbildung gezeigte Richtung bewegen</t>
+  </si>
+  <si>
+    <t>Por favor calibre o relógio movendo-o na direção mostrada na ilustração</t>
+  </si>
+  <si>
+    <t>S'il vous plaît calibrer la montre en la déplaçant dans la direction montrée dans l'illustration</t>
+  </si>
+  <si>
+    <t>Silakan kalibrasi jam tangan dengan menggerakkannya ke arah yang ditunjukkan dalam ilustrasi</t>
+  </si>
+  <si>
+    <t>Si prega di calibrare l'orologio spostandolo nella direzione mostrata nell'illustrazione</t>
+  </si>
+  <si>
+    <t>Por favor, calibre o relógio movendo-o na direção mostrada na ilustração</t>
+  </si>
+  <si>
+    <t>โปรดปรับระดับนาฬิกาโดยย้ายในทิศทางที่แสดงในภาพ</t>
+  </si>
+  <si>
+    <t>Vui lòng hiệu chuẩn đồng hồ bằng cách di chuyển theo hướng được hiển thị trong hình minh họa</t>
+  </si>
+  <si>
+    <t>請把手表按照圖示方向移動，進行校準</t>
+  </si>
+  <si>
     <t>东</t>
   </si>
   <si>
@@ -18024,18 +18102,48 @@
     <t>E</t>
   </si>
   <si>
+    <t>هاء</t>
+  </si>
+  <si>
+    <t>Е</t>
+  </si>
+  <si>
+    <t>E'nin</t>
+  </si>
+  <si>
+    <t>อี</t>
+  </si>
+  <si>
+    <t>東</t>
+  </si>
+  <si>
     <t>南</t>
   </si>
   <si>
     <t>STR_COMPASS_S</t>
   </si>
   <si>
+    <t>S'nin</t>
+  </si>
+  <si>
+    <t>เอส</t>
+  </si>
+  <si>
     <t>西</t>
   </si>
   <si>
     <t>STR_COMPASS_W</t>
   </si>
   <si>
+    <t>دبليو</t>
+  </si>
+  <si>
+    <t>W'nin</t>
+  </si>
+  <si>
+    <t>ดับเบิลยู</t>
+  </si>
+  <si>
     <t>北</t>
   </si>
   <si>
@@ -18045,6 +18153,15 @@
     <t>N</t>
   </si>
   <si>
+    <t>ن</t>
+  </si>
+  <si>
+    <t>Н</t>
+  </si>
+  <si>
+    <t>N'nin</t>
+  </si>
+  <si>
     <t>东南</t>
   </si>
   <si>
@@ -18054,6 +18171,21 @@
     <t>SE</t>
   </si>
   <si>
+    <t>Gündogar</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>ภาค SE</t>
+  </si>
+  <si>
+    <t>Đông</t>
+  </si>
+  <si>
+    <t>東南</t>
+  </si>
+  <si>
     <t>东北</t>
   </si>
   <si>
@@ -18063,6 +18195,18 @@
     <t>NE</t>
   </si>
   <si>
+    <t>СЕ</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
+    <t>ตะวันออกเฉียง</t>
+  </si>
+  <si>
+    <t>東北</t>
+  </si>
+  <si>
     <t>西南</t>
   </si>
   <si>
@@ -18072,6 +18216,9 @@
     <t>SW</t>
   </si>
   <si>
+    <t>SW'nin</t>
+  </si>
+  <si>
     <t>西北</t>
   </si>
   <si>
@@ -18079,6 +18226,15 @@
   </si>
   <si>
     <t>NW</t>
+  </si>
+  <si>
+    <t>شمال غربي</t>
+  </si>
+  <si>
+    <t>НВ</t>
+  </si>
+  <si>
+    <t>NW'de</t>
   </si>
 </sst>
 </file>
@@ -20369,7 +20525,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F312" sqref="F312"/>
+      <selection pane="bottomRight" activeCell="W312" sqref="W312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5"/>
@@ -47902,38 +48058,64 @@
       <c r="E303" s="107" t="s">
         <v>4094</v>
       </c>
-      <c r="F303" s="108"/>
-      <c r="G303" s="36"/>
-      <c r="H303" s="36"/>
-      <c r="I303" s="36"/>
-      <c r="J303" s="36"/>
+      <c r="F303" s="108" t="s">
+        <v>4095</v>
+      </c>
+      <c r="G303" s="36" t="s">
+        <v>4096</v>
+      </c>
+      <c r="H303" s="36" t="s">
+        <v>4097</v>
+      </c>
+      <c r="I303" s="36" t="s">
+        <v>4098</v>
+      </c>
+      <c r="J303" s="36" t="s">
+        <v>4099</v>
+      </c>
       <c r="K303" s="82"/>
       <c r="L303" s="19"/>
       <c r="M303" s="36"/>
       <c r="N303" s="82"/>
-      <c r="O303" s="36"/>
+      <c r="O303" s="36" t="s">
+        <v>4100</v>
+      </c>
       <c r="P303" s="36"/>
-      <c r="Q303" s="36"/>
+      <c r="Q303" s="36" t="s">
+        <v>4094</v>
+      </c>
       <c r="R303" s="117"/>
       <c r="S303" s="82"/>
-      <c r="T303" s="36"/>
+      <c r="T303" s="36" t="s">
+        <v>4101</v>
+      </c>
       <c r="U303" s="82"/>
       <c r="V303" s="36"/>
-      <c r="W303" s="36"/>
-      <c r="X303" s="36"/>
+      <c r="W303" s="36" t="s">
+        <v>4098</v>
+      </c>
+      <c r="X303" s="36" t="s">
+        <v>4102</v>
+      </c>
       <c r="Y303" s="36"/>
       <c r="Z303" s="82"/>
       <c r="AA303" s="36"/>
       <c r="AB303" s="36"/>
       <c r="AC303" s="82"/>
-      <c r="AD303" s="36"/>
+      <c r="AD303" s="36" t="s">
+        <v>4103</v>
+      </c>
       <c r="AE303" s="36"/>
       <c r="AF303" s="36"/>
       <c r="AG303" s="82"/>
       <c r="AH303" s="82"/>
-      <c r="AI303" s="36"/>
+      <c r="AI303" s="36" t="s">
+        <v>4104</v>
+      </c>
       <c r="AJ303" s="2"/>
-      <c r="AK303" s="123"/>
+      <c r="AK303" s="123" t="s">
+        <v>4105</v>
+      </c>
       <c r="AL303" s="2"/>
       <c r="AM303" s="36"/>
       <c r="AN303" s="2"/>
@@ -47947,55 +48129,83 @@
       <c r="AV303" s="36"/>
       <c r="AW303" s="2"/>
       <c r="AX303" s="2"/>
-      <c r="AY303" s="36"/>
+      <c r="AY303" s="65" t="s">
+        <v>4106</v>
+      </c>
       <c r="AZ303" s="47"/>
     </row>
-    <row r="304" s="2" customFormat="1" ht="42.75" spans="1:52">
+    <row r="304" s="2" customFormat="1" ht="60" spans="1:52">
       <c r="A304" s="10">
         <v>302</v>
       </c>
       <c r="B304" s="103"/>
       <c r="C304" s="65" t="s">
-        <v>4095</v>
+        <v>4107</v>
       </c>
       <c r="D304" s="65" t="s">
-        <v>4096</v>
+        <v>4108</v>
       </c>
       <c r="E304" s="107" t="s">
-        <v>4097</v>
-      </c>
-      <c r="F304" s="108"/>
-      <c r="G304" s="36"/>
-      <c r="H304" s="36"/>
-      <c r="I304" s="36"/>
-      <c r="J304" s="36"/>
+        <v>4109</v>
+      </c>
+      <c r="F304" s="108" t="s">
+        <v>4110</v>
+      </c>
+      <c r="G304" s="36" t="s">
+        <v>4111</v>
+      </c>
+      <c r="H304" s="36" t="s">
+        <v>4112</v>
+      </c>
+      <c r="I304" s="36" t="s">
+        <v>4113</v>
+      </c>
+      <c r="J304" s="36" t="s">
+        <v>4114</v>
+      </c>
       <c r="K304" s="2"/>
       <c r="L304" s="19"/>
       <c r="M304" s="36"/>
       <c r="N304" s="2"/>
-      <c r="O304" s="36"/>
+      <c r="O304" s="36" t="s">
+        <v>4115</v>
+      </c>
       <c r="P304" s="36"/>
-      <c r="Q304" s="36"/>
+      <c r="Q304" s="36" t="s">
+        <v>4116</v>
+      </c>
       <c r="R304" s="117"/>
       <c r="S304" s="2"/>
-      <c r="T304" s="36"/>
+      <c r="T304" s="36" t="s">
+        <v>4117</v>
+      </c>
       <c r="U304" s="2"/>
       <c r="V304" s="36"/>
-      <c r="W304" s="36"/>
-      <c r="X304" s="36"/>
+      <c r="W304" s="36" t="s">
+        <v>4118</v>
+      </c>
+      <c r="X304" s="36" t="s">
+        <v>4119</v>
+      </c>
       <c r="Y304" s="36"/>
       <c r="Z304" s="2"/>
       <c r="AA304" s="36"/>
       <c r="AB304" s="36"/>
       <c r="AC304" s="2"/>
-      <c r="AD304" s="36"/>
+      <c r="AD304" s="36" t="s">
+        <v>4120</v>
+      </c>
       <c r="AE304" s="36"/>
       <c r="AF304" s="36"/>
       <c r="AG304" s="2"/>
       <c r="AH304" s="2"/>
-      <c r="AI304" s="36"/>
+      <c r="AI304" s="36" t="s">
+        <v>4121</v>
+      </c>
       <c r="AJ304" s="2"/>
-      <c r="AK304" s="123"/>
+      <c r="AK304" s="123" t="s">
+        <v>4122</v>
+      </c>
       <c r="AL304" s="2"/>
       <c r="AM304" s="36"/>
       <c r="AN304" s="2"/>
@@ -48009,7 +48219,9 @@
       <c r="AV304" s="36"/>
       <c r="AW304" s="2"/>
       <c r="AX304" s="2"/>
-      <c r="AY304" s="36"/>
+      <c r="AY304" s="65" t="s">
+        <v>4123</v>
+      </c>
       <c r="AZ304" s="47"/>
     </row>
     <row r="305" s="2" customFormat="1" ht="18.75" spans="1:52">
@@ -48018,46 +48230,72 @@
       </c>
       <c r="B305" s="103"/>
       <c r="C305" s="65" t="s">
-        <v>4098</v>
+        <v>4124</v>
       </c>
       <c r="D305" s="65" t="s">
-        <v>4099</v>
+        <v>4125</v>
       </c>
       <c r="E305" s="107" t="s">
-        <v>4100</v>
-      </c>
-      <c r="F305" s="108"/>
-      <c r="G305" s="36"/>
-      <c r="H305" s="36"/>
-      <c r="I305" s="36"/>
-      <c r="J305" s="36"/>
+        <v>4126</v>
+      </c>
+      <c r="F305" s="108" t="s">
+        <v>4127</v>
+      </c>
+      <c r="G305" s="36" t="s">
+        <v>4128</v>
+      </c>
+      <c r="H305" s="36" t="s">
+        <v>4129</v>
+      </c>
+      <c r="I305" s="36" t="s">
+        <v>4126</v>
+      </c>
+      <c r="J305" s="36" t="s">
+        <v>4126</v>
+      </c>
       <c r="K305" s="114"/>
       <c r="L305" s="19"/>
       <c r="M305" s="36"/>
       <c r="N305" s="114"/>
-      <c r="O305" s="36"/>
+      <c r="O305" s="36" t="s">
+        <v>4126</v>
+      </c>
       <c r="P305" s="36"/>
-      <c r="Q305" s="36"/>
+      <c r="Q305" s="36" t="s">
+        <v>4126</v>
+      </c>
       <c r="R305" s="117"/>
       <c r="S305" s="114"/>
-      <c r="T305" s="36"/>
+      <c r="T305" s="36" t="s">
+        <v>4126</v>
+      </c>
       <c r="U305" s="114"/>
       <c r="V305" s="36"/>
-      <c r="W305" s="36"/>
-      <c r="X305" s="36"/>
+      <c r="W305" s="36" t="s">
+        <v>4126</v>
+      </c>
+      <c r="X305" s="36" t="s">
+        <v>4126</v>
+      </c>
       <c r="Y305" s="36"/>
       <c r="Z305" s="114"/>
       <c r="AA305" s="36"/>
       <c r="AB305" s="36"/>
       <c r="AC305" s="114"/>
-      <c r="AD305" s="36"/>
+      <c r="AD305" s="36" t="s">
+        <v>4126</v>
+      </c>
       <c r="AE305" s="36"/>
       <c r="AF305" s="36"/>
       <c r="AG305" s="114"/>
       <c r="AH305" s="114"/>
-      <c r="AI305" s="36"/>
+      <c r="AI305" s="36" t="s">
+        <v>4130</v>
+      </c>
       <c r="AJ305" s="2"/>
-      <c r="AK305" s="123"/>
+      <c r="AK305" s="123" t="s">
+        <v>4126</v>
+      </c>
       <c r="AL305" s="2"/>
       <c r="AM305" s="36"/>
       <c r="AN305" s="2"/>
@@ -48071,7 +48309,9 @@
       <c r="AV305" s="36"/>
       <c r="AW305" s="2"/>
       <c r="AX305" s="2"/>
-      <c r="AY305" s="36"/>
+      <c r="AY305" s="65" t="s">
+        <v>4131</v>
+      </c>
       <c r="AZ305" s="47"/>
     </row>
     <row r="306" s="2" customFormat="1" ht="18.75" spans="1:52">
@@ -48080,46 +48320,72 @@
       </c>
       <c r="B306" s="103"/>
       <c r="C306" s="65" t="s">
-        <v>4101</v>
+        <v>4132</v>
       </c>
       <c r="D306" s="65" t="s">
-        <v>4102</v>
+        <v>4133</v>
       </c>
       <c r="E306" s="107" t="s">
         <v>1400</v>
       </c>
-      <c r="F306" s="108"/>
-      <c r="G306" s="36"/>
-      <c r="H306" s="36"/>
-      <c r="I306" s="36"/>
-      <c r="J306" s="36"/>
+      <c r="F306" s="108" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G306" s="36" t="s">
+        <v>2667</v>
+      </c>
+      <c r="H306" s="36" t="s">
+        <v>4134</v>
+      </c>
+      <c r="I306" s="36" t="s">
+        <v>1400</v>
+      </c>
+      <c r="J306" s="36" t="s">
+        <v>1400</v>
+      </c>
       <c r="K306" s="2"/>
       <c r="L306" s="19"/>
       <c r="M306" s="36"/>
       <c r="N306" s="2"/>
-      <c r="O306" s="36"/>
+      <c r="O306" s="36" t="s">
+        <v>1400</v>
+      </c>
       <c r="P306" s="36"/>
-      <c r="Q306" s="36"/>
+      <c r="Q306" s="36" t="s">
+        <v>1400</v>
+      </c>
       <c r="R306" s="117"/>
       <c r="S306" s="2"/>
-      <c r="T306" s="36"/>
+      <c r="T306" s="36" t="s">
+        <v>1400</v>
+      </c>
       <c r="U306" s="2"/>
       <c r="V306" s="36"/>
-      <c r="W306" s="36"/>
-      <c r="X306" s="36"/>
+      <c r="W306" s="36" t="s">
+        <v>1400</v>
+      </c>
+      <c r="X306" s="36" t="s">
+        <v>1400</v>
+      </c>
       <c r="Y306" s="36"/>
       <c r="Z306" s="2"/>
       <c r="AA306" s="36"/>
       <c r="AB306" s="36"/>
       <c r="AC306" s="2"/>
-      <c r="AD306" s="36"/>
+      <c r="AD306" s="36" t="s">
+        <v>1400</v>
+      </c>
       <c r="AE306" s="36"/>
       <c r="AF306" s="36"/>
       <c r="AG306" s="2"/>
       <c r="AH306" s="2"/>
-      <c r="AI306" s="36"/>
+      <c r="AI306" s="36" t="s">
+        <v>4135</v>
+      </c>
       <c r="AJ306" s="2"/>
-      <c r="AK306" s="123"/>
+      <c r="AK306" s="123" t="s">
+        <v>1400</v>
+      </c>
       <c r="AL306" s="2"/>
       <c r="AM306" s="36"/>
       <c r="AN306" s="2"/>
@@ -48133,7 +48399,9 @@
       <c r="AV306" s="36"/>
       <c r="AW306" s="2"/>
       <c r="AX306" s="2"/>
-      <c r="AY306" s="36"/>
+      <c r="AY306" s="65" t="s">
+        <v>4132</v>
+      </c>
       <c r="AZ306" s="47"/>
     </row>
     <row r="307" s="2" customFormat="1" ht="18.75" spans="1:52">
@@ -48142,46 +48410,72 @@
       </c>
       <c r="B307" s="103"/>
       <c r="C307" s="65" t="s">
-        <v>4103</v>
+        <v>4136</v>
       </c>
       <c r="D307" s="65" t="s">
-        <v>4104</v>
+        <v>4137</v>
       </c>
       <c r="E307" s="107" t="s">
         <v>2665</v>
       </c>
-      <c r="F307" s="108"/>
-      <c r="G307" s="36"/>
-      <c r="H307" s="36"/>
-      <c r="I307" s="36"/>
-      <c r="J307" s="36"/>
+      <c r="F307" s="108" t="s">
+        <v>4138</v>
+      </c>
+      <c r="G307" s="36" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H307" s="36" t="s">
+        <v>4139</v>
+      </c>
+      <c r="I307" s="36" t="s">
+        <v>2665</v>
+      </c>
+      <c r="J307" s="36" t="s">
+        <v>2665</v>
+      </c>
       <c r="K307" s="114"/>
       <c r="L307" s="19"/>
       <c r="M307" s="36"/>
       <c r="N307" s="114"/>
-      <c r="O307" s="36"/>
+      <c r="O307" s="36" t="s">
+        <v>2665</v>
+      </c>
       <c r="P307" s="36"/>
-      <c r="Q307" s="36"/>
+      <c r="Q307" s="36" t="s">
+        <v>2665</v>
+      </c>
       <c r="R307" s="118"/>
       <c r="S307" s="114"/>
-      <c r="T307" s="36"/>
+      <c r="T307" s="36" t="s">
+        <v>2665</v>
+      </c>
       <c r="U307" s="114"/>
       <c r="V307" s="36"/>
-      <c r="W307" s="36"/>
-      <c r="X307" s="36"/>
+      <c r="W307" s="36" t="s">
+        <v>2665</v>
+      </c>
+      <c r="X307" s="36" t="s">
+        <v>2665</v>
+      </c>
       <c r="Y307" s="36"/>
       <c r="Z307" s="114"/>
       <c r="AA307" s="36"/>
       <c r="AB307" s="36"/>
       <c r="AC307" s="114"/>
-      <c r="AD307" s="36"/>
+      <c r="AD307" s="36" t="s">
+        <v>2665</v>
+      </c>
       <c r="AE307" s="36"/>
       <c r="AF307" s="36"/>
       <c r="AG307" s="114"/>
       <c r="AH307" s="114"/>
-      <c r="AI307" s="36"/>
+      <c r="AI307" s="36" t="s">
+        <v>4140</v>
+      </c>
       <c r="AJ307" s="2"/>
-      <c r="AK307" s="123"/>
+      <c r="AK307" s="123" t="s">
+        <v>2665</v>
+      </c>
       <c r="AL307" s="2"/>
       <c r="AM307" s="36"/>
       <c r="AN307" s="2"/>
@@ -48195,7 +48489,9 @@
       <c r="AV307" s="36"/>
       <c r="AW307" s="2"/>
       <c r="AX307" s="2"/>
-      <c r="AY307" s="36"/>
+      <c r="AY307" s="65" t="s">
+        <v>4136</v>
+      </c>
       <c r="AZ307" s="47"/>
     </row>
     <row r="308" s="2" customFormat="1" ht="18.75" spans="1:52">
@@ -48204,46 +48500,72 @@
       </c>
       <c r="B308" s="103"/>
       <c r="C308" s="65" t="s">
-        <v>4105</v>
+        <v>4141</v>
       </c>
       <c r="D308" s="65" t="s">
-        <v>4106</v>
+        <v>4142</v>
       </c>
       <c r="E308" s="107" t="s">
-        <v>4107</v>
-      </c>
-      <c r="F308" s="108"/>
-      <c r="G308" s="36"/>
-      <c r="H308" s="36"/>
-      <c r="I308" s="36"/>
-      <c r="J308" s="36"/>
+        <v>4143</v>
+      </c>
+      <c r="F308" s="108" t="s">
+        <v>4144</v>
+      </c>
+      <c r="G308" s="36" t="s">
+        <v>4145</v>
+      </c>
+      <c r="H308" s="36" t="s">
+        <v>4146</v>
+      </c>
+      <c r="I308" s="36" t="s">
+        <v>4143</v>
+      </c>
+      <c r="J308" s="36" t="s">
+        <v>4143</v>
+      </c>
       <c r="K308" s="114"/>
       <c r="L308" s="19"/>
       <c r="M308" s="36"/>
       <c r="N308" s="114"/>
-      <c r="O308" s="36"/>
+      <c r="O308" s="36" t="s">
+        <v>4143</v>
+      </c>
       <c r="P308" s="36"/>
-      <c r="Q308" s="36"/>
+      <c r="Q308" s="36" t="s">
+        <v>4143</v>
+      </c>
       <c r="R308" s="117"/>
       <c r="S308" s="114"/>
-      <c r="T308" s="36"/>
+      <c r="T308" s="36" t="s">
+        <v>4143</v>
+      </c>
       <c r="U308" s="114"/>
       <c r="V308" s="36"/>
-      <c r="W308" s="36"/>
-      <c r="X308" s="36"/>
+      <c r="W308" s="36" t="s">
+        <v>4143</v>
+      </c>
+      <c r="X308" s="36" t="s">
+        <v>4143</v>
+      </c>
       <c r="Y308" s="36"/>
       <c r="Z308" s="114"/>
       <c r="AA308" s="36"/>
       <c r="AB308" s="36"/>
       <c r="AC308" s="114"/>
-      <c r="AD308" s="36"/>
+      <c r="AD308" s="36" t="s">
+        <v>4143</v>
+      </c>
       <c r="AE308" s="36"/>
       <c r="AF308" s="36"/>
       <c r="AG308" s="114"/>
       <c r="AH308" s="114"/>
-      <c r="AI308" s="36"/>
+      <c r="AI308" s="36" t="s">
+        <v>4143</v>
+      </c>
       <c r="AJ308" s="2"/>
-      <c r="AK308" s="123"/>
+      <c r="AK308" s="123" t="s">
+        <v>4143</v>
+      </c>
       <c r="AL308" s="2"/>
       <c r="AM308" s="36"/>
       <c r="AN308" s="2"/>
@@ -48257,7 +48579,9 @@
       <c r="AV308" s="36"/>
       <c r="AW308" s="2"/>
       <c r="AX308" s="2"/>
-      <c r="AY308" s="36"/>
+      <c r="AY308" s="65" t="s">
+        <v>4141</v>
+      </c>
       <c r="AZ308" s="47"/>
     </row>
     <row r="309" s="2" customFormat="1" ht="18.75" spans="1:52">
@@ -48266,46 +48590,72 @@
       </c>
       <c r="B309" s="103"/>
       <c r="C309" s="65" t="s">
-        <v>4108</v>
+        <v>4147</v>
       </c>
       <c r="D309" s="65" t="s">
-        <v>4109</v>
+        <v>4148</v>
       </c>
       <c r="E309" s="107" t="s">
-        <v>4110</v>
-      </c>
-      <c r="F309" s="108"/>
-      <c r="G309" s="36"/>
-      <c r="H309" s="36"/>
-      <c r="I309" s="36"/>
-      <c r="J309" s="36"/>
+        <v>4149</v>
+      </c>
+      <c r="F309" s="108" t="s">
+        <v>4149</v>
+      </c>
+      <c r="G309" s="36" t="s">
+        <v>4149</v>
+      </c>
+      <c r="H309" s="36" t="s">
+        <v>4150</v>
+      </c>
+      <c r="I309" s="36" t="s">
+        <v>4151</v>
+      </c>
+      <c r="J309" s="36" t="s">
+        <v>4149</v>
+      </c>
       <c r="K309" s="114"/>
       <c r="L309" s="19"/>
       <c r="M309" s="36"/>
       <c r="N309" s="114"/>
-      <c r="O309" s="36"/>
+      <c r="O309" s="36" t="s">
+        <v>4149</v>
+      </c>
       <c r="P309" s="36"/>
-      <c r="Q309" s="36"/>
+      <c r="Q309" s="36" t="s">
+        <v>4149</v>
+      </c>
       <c r="R309" s="118"/>
       <c r="S309" s="114"/>
-      <c r="T309" s="36"/>
+      <c r="T309" s="36" t="s">
+        <v>4149</v>
+      </c>
       <c r="U309" s="114"/>
       <c r="V309" s="36"/>
-      <c r="W309" s="36"/>
-      <c r="X309" s="36"/>
+      <c r="W309" s="36" t="s">
+        <v>4149</v>
+      </c>
+      <c r="X309" s="36" t="s">
+        <v>4149</v>
+      </c>
       <c r="Y309" s="36"/>
       <c r="Z309" s="114"/>
       <c r="AA309" s="36"/>
       <c r="AB309" s="36"/>
       <c r="AC309" s="114"/>
-      <c r="AD309" s="36"/>
+      <c r="AD309" s="36" t="s">
+        <v>4149</v>
+      </c>
       <c r="AE309" s="36"/>
       <c r="AF309" s="36"/>
       <c r="AG309" s="114"/>
       <c r="AH309" s="114"/>
-      <c r="AI309" s="36"/>
+      <c r="AI309" s="36" t="s">
+        <v>4152</v>
+      </c>
       <c r="AJ309" s="2"/>
-      <c r="AK309" s="123"/>
+      <c r="AK309" s="123" t="s">
+        <v>4153</v>
+      </c>
       <c r="AL309" s="2"/>
       <c r="AM309" s="36"/>
       <c r="AN309" s="2"/>
@@ -48319,7 +48669,9 @@
       <c r="AV309" s="36"/>
       <c r="AW309" s="2"/>
       <c r="AX309" s="2"/>
-      <c r="AY309" s="36"/>
+      <c r="AY309" s="65" t="s">
+        <v>4154</v>
+      </c>
       <c r="AZ309" s="47"/>
     </row>
     <row r="310" s="2" customFormat="1" ht="18.75" spans="1:52">
@@ -48328,46 +48680,72 @@
       </c>
       <c r="B310" s="103"/>
       <c r="C310" s="65" t="s">
-        <v>4111</v>
+        <v>4155</v>
       </c>
       <c r="D310" s="65" t="s">
-        <v>4112</v>
+        <v>4156</v>
       </c>
       <c r="E310" s="107" t="s">
-        <v>4113</v>
-      </c>
-      <c r="F310" s="108"/>
-      <c r="G310" s="36"/>
-      <c r="H310" s="36"/>
-      <c r="I310" s="36"/>
-      <c r="J310" s="36"/>
+        <v>4157</v>
+      </c>
+      <c r="F310" s="108" t="s">
+        <v>4157</v>
+      </c>
+      <c r="G310" s="36" t="s">
+        <v>4158</v>
+      </c>
+      <c r="H310" s="36" t="s">
+        <v>4157</v>
+      </c>
+      <c r="I310" s="36" t="s">
+        <v>4159</v>
+      </c>
+      <c r="J310" s="36" t="s">
+        <v>4157</v>
+      </c>
       <c r="K310" s="2"/>
       <c r="L310" s="19"/>
       <c r="M310" s="36"/>
       <c r="N310" s="2"/>
-      <c r="O310" s="36"/>
+      <c r="O310" s="36" t="s">
+        <v>4157</v>
+      </c>
       <c r="P310" s="36"/>
-      <c r="Q310" s="36"/>
+      <c r="Q310" s="36" t="s">
+        <v>4157</v>
+      </c>
       <c r="R310" s="117"/>
       <c r="S310" s="2"/>
-      <c r="T310" s="36"/>
+      <c r="T310" s="36" t="s">
+        <v>4157</v>
+      </c>
       <c r="U310" s="2"/>
       <c r="V310" s="36"/>
-      <c r="W310" s="36"/>
-      <c r="X310" s="36"/>
+      <c r="W310" s="36" t="s">
+        <v>4157</v>
+      </c>
+      <c r="X310" s="36" t="s">
+        <v>4157</v>
+      </c>
       <c r="Y310" s="36"/>
       <c r="Z310" s="2"/>
       <c r="AA310" s="36"/>
       <c r="AB310" s="36"/>
       <c r="AC310" s="2"/>
-      <c r="AD310" s="36"/>
+      <c r="AD310" s="36" t="s">
+        <v>4157</v>
+      </c>
       <c r="AE310" s="36"/>
       <c r="AF310" s="36"/>
       <c r="AG310" s="2"/>
       <c r="AH310" s="2"/>
-      <c r="AI310" s="36"/>
+      <c r="AI310" s="36" t="s">
+        <v>4160</v>
+      </c>
       <c r="AJ310" s="2"/>
-      <c r="AK310" s="123"/>
+      <c r="AK310" s="123" t="s">
+        <v>4157</v>
+      </c>
       <c r="AL310" s="2"/>
       <c r="AM310" s="36"/>
       <c r="AN310" s="2"/>
@@ -48381,7 +48759,9 @@
       <c r="AV310" s="36"/>
       <c r="AW310" s="2"/>
       <c r="AX310" s="2"/>
-      <c r="AY310" s="36"/>
+      <c r="AY310" s="65" t="s">
+        <v>4161</v>
+      </c>
       <c r="AZ310" s="47"/>
     </row>
     <row r="311" s="2" customFormat="1" ht="18.75" spans="1:52">
@@ -48390,46 +48770,72 @@
       </c>
       <c r="B311" s="103"/>
       <c r="C311" s="65" t="s">
-        <v>4114</v>
+        <v>4162</v>
       </c>
       <c r="D311" s="65" t="s">
-        <v>4115</v>
+        <v>4163</v>
       </c>
       <c r="E311" s="107" t="s">
-        <v>4116</v>
-      </c>
-      <c r="F311" s="108"/>
-      <c r="G311" s="36"/>
-      <c r="H311" s="36"/>
-      <c r="I311" s="36"/>
-      <c r="J311" s="36"/>
+        <v>4164</v>
+      </c>
+      <c r="F311" s="108" t="s">
+        <v>4164</v>
+      </c>
+      <c r="G311" s="36" t="s">
+        <v>4164</v>
+      </c>
+      <c r="H311" s="36" t="s">
+        <v>4165</v>
+      </c>
+      <c r="I311" s="36" t="s">
+        <v>4164</v>
+      </c>
+      <c r="J311" s="36" t="s">
+        <v>4164</v>
+      </c>
       <c r="K311" s="2"/>
       <c r="L311" s="19"/>
       <c r="M311" s="36"/>
       <c r="N311" s="2"/>
-      <c r="O311" s="36"/>
+      <c r="O311" s="36" t="s">
+        <v>4164</v>
+      </c>
       <c r="P311" s="36"/>
-      <c r="Q311" s="36"/>
+      <c r="Q311" s="36" t="s">
+        <v>4164</v>
+      </c>
       <c r="R311" s="117"/>
       <c r="S311" s="2"/>
-      <c r="T311" s="36"/>
+      <c r="T311" s="36" t="s">
+        <v>4164</v>
+      </c>
       <c r="U311" s="2"/>
       <c r="V311" s="36"/>
-      <c r="W311" s="36"/>
-      <c r="X311" s="36"/>
+      <c r="W311" s="36" t="s">
+        <v>4164</v>
+      </c>
+      <c r="X311" s="36" t="s">
+        <v>4164</v>
+      </c>
       <c r="Y311" s="36"/>
       <c r="Z311" s="2"/>
       <c r="AA311" s="36"/>
       <c r="AB311" s="36"/>
       <c r="AC311" s="2"/>
-      <c r="AD311" s="36"/>
+      <c r="AD311" s="36" t="s">
+        <v>4164</v>
+      </c>
       <c r="AE311" s="36"/>
       <c r="AF311" s="36"/>
       <c r="AG311" s="2"/>
       <c r="AH311" s="2"/>
-      <c r="AI311" s="36"/>
+      <c r="AI311" s="36" t="s">
+        <v>4164</v>
+      </c>
       <c r="AJ311" s="2"/>
-      <c r="AK311" s="123"/>
+      <c r="AK311" s="123" t="s">
+        <v>4164</v>
+      </c>
       <c r="AL311" s="2"/>
       <c r="AM311" s="36"/>
       <c r="AN311" s="2"/>
@@ -48443,7 +48849,9 @@
       <c r="AV311" s="36"/>
       <c r="AW311" s="2"/>
       <c r="AX311" s="2"/>
-      <c r="AY311" s="36"/>
+      <c r="AY311" s="65" t="s">
+        <v>4162</v>
+      </c>
       <c r="AZ311" s="127"/>
     </row>
     <row r="312" s="2" customFormat="1" ht="18.75" spans="1:52">
@@ -48452,46 +48860,72 @@
       </c>
       <c r="B312" s="103"/>
       <c r="C312" s="65" t="s">
-        <v>4117</v>
+        <v>4166</v>
       </c>
       <c r="D312" s="65" t="s">
-        <v>4118</v>
+        <v>4167</v>
       </c>
       <c r="E312" s="109" t="s">
-        <v>4119</v>
-      </c>
-      <c r="F312" s="108"/>
-      <c r="G312" s="36"/>
-      <c r="H312" s="36"/>
-      <c r="I312" s="36"/>
-      <c r="J312" s="36"/>
+        <v>4168</v>
+      </c>
+      <c r="F312" s="108" t="s">
+        <v>4169</v>
+      </c>
+      <c r="G312" s="36" t="s">
+        <v>4170</v>
+      </c>
+      <c r="H312" s="36" t="s">
+        <v>4171</v>
+      </c>
+      <c r="I312" s="36" t="s">
+        <v>4168</v>
+      </c>
+      <c r="J312" s="36" t="s">
+        <v>4168</v>
+      </c>
       <c r="K312" s="2"/>
       <c r="L312" s="19"/>
       <c r="M312" s="36"/>
       <c r="N312" s="2"/>
-      <c r="O312" s="36"/>
+      <c r="O312" s="36" t="s">
+        <v>4168</v>
+      </c>
       <c r="P312" s="36"/>
-      <c r="Q312" s="36"/>
+      <c r="Q312" s="36" t="s">
+        <v>4168</v>
+      </c>
       <c r="R312" s="119"/>
       <c r="S312" s="2"/>
-      <c r="T312" s="36"/>
+      <c r="T312" s="36" t="s">
+        <v>4168</v>
+      </c>
       <c r="U312" s="2"/>
       <c r="V312" s="36"/>
-      <c r="W312" s="36"/>
-      <c r="X312" s="36"/>
+      <c r="W312" s="36" t="s">
+        <v>4168</v>
+      </c>
+      <c r="X312" s="36" t="s">
+        <v>4168</v>
+      </c>
       <c r="Y312" s="36"/>
       <c r="Z312" s="2"/>
       <c r="AA312" s="36"/>
       <c r="AB312" s="36"/>
       <c r="AC312" s="2"/>
-      <c r="AD312" s="36"/>
+      <c r="AD312" s="36" t="s">
+        <v>4168</v>
+      </c>
       <c r="AE312" s="36"/>
       <c r="AF312" s="36"/>
       <c r="AG312" s="2"/>
       <c r="AH312" s="2"/>
-      <c r="AI312" s="36"/>
+      <c r="AI312" s="36" t="s">
+        <v>4168</v>
+      </c>
       <c r="AJ312" s="2"/>
-      <c r="AK312" s="123"/>
+      <c r="AK312" s="123" t="s">
+        <v>4168</v>
+      </c>
       <c r="AL312" s="2"/>
       <c r="AM312" s="36"/>
       <c r="AN312" s="2"/>
@@ -48505,7 +48939,9 @@
       <c r="AV312" s="36"/>
       <c r="AW312" s="2"/>
       <c r="AX312" s="2"/>
-      <c r="AY312" s="36"/>
+      <c r="AY312" s="65" t="s">
+        <v>4166</v>
+      </c>
       <c r="AZ312" s="127"/>
     </row>
     <row r="313" s="2" customFormat="1" ht="18.75" spans="1:52">
